--- a/data/TT/Field-2020.xlsx
+++ b/data/TT/Field-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\9-29-19_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B363A2-B2D7-4A9A-9678-D3E767A90CBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5076979-6C50-4825-9877-66308FFBAB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19632" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t>Major field</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -88,22 +85,16 @@
     <t>Tball</t>
   </si>
   <si>
-    <t>coach pitch</t>
-  </si>
-  <si>
     <t>2,1,3</t>
   </si>
   <si>
-    <t>4,5,6</t>
-  </si>
-  <si>
-    <t>5,6,7</t>
-  </si>
-  <si>
-    <t>3,6,5,4,2</t>
-  </si>
-  <si>
-    <t>2,3,4,5,6</t>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>3,5,4,2</t>
+  </si>
+  <si>
+    <t>5,7</t>
   </si>
 </sst>
 </file>
@@ -455,12 +446,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -482,10 +473,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -493,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -504,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -515,57 +506,51 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
